--- a/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_2_enrolement.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_2_enrolement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F593376-5973-4328-BE01-1B38E5AF7AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA0E95-A589-4553-B93B-C5CBF6D23C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -309,10 +309,10 @@
     <t>. &gt;= 5 and . &lt;= 15</t>
   </si>
   <si>
-    <t>bf_202311_sch_impact_assessment_2_enrolement</t>
-  </si>
-  <si>
-    <t>(BF - Novembre 2023) impact schisto - 2. Formulaire Enrôlement</t>
+    <t>bf_202403_sch_ia_2_enrolement</t>
+  </si>
+  <si>
+    <t>(BF - Mars 2024) impact schisto - 2. Formulaire Enrôlement</t>
   </si>
 </sst>
 </file>
@@ -446,12 +446,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -464,13 +463,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -484,7 +479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -807,409 +802,409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="16"/>
-    <col min="11" max="11" width="41.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="16"/>
-    <col min="13" max="13" width="13.7109375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="21.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="41.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="13.7109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="15.75">
-      <c r="A6" s="19" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="15.75">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="15.75">
-      <c r="A7" s="19" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="15.75">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="15"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="16" t="s">
+      <c r="J11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
+      <c r="A23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -1234,22 +1229,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1341,8 +1336,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -1366,8 +1361,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -1391,7 +1386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1"/>
+    <row r="16" spans="1:6" s="2" customFormat="1"/>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
     </row>
@@ -1413,8 +1408,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
@@ -1442,8 +1437,8 @@
       <c r="A27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:7" s="2" customFormat="1">
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
@@ -1458,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1475,18 +1470,18 @@
       <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>93</v>
       </c>
     </row>
